--- a/docs/DataDocs/기획 데이터.xlsx
+++ b/docs/DataDocs/기획 데이터.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\DataDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D24B2-ADF9-42C3-B400-3D41E91345E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B918B4C1-CA49-415A-A95D-9144711A8FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="날씨 관련 기획 데이터" sheetId="3" r:id="rId1"/>
@@ -1275,7 +1275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1790,7 +1790,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -1800,7 +1800,7 @@
     <col min="6" max="6" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="11" t="s">
         <v>214</v>
       </c>
@@ -1816,7 +1816,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1838,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1860,7 +1860,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1880,7 +1880,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1900,7 +1900,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="3" customFormat="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="3" customFormat="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="3" customFormat="1">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1984,8 +1984,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="3" customFormat="1"/>
+    <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1999,7 +1999,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="11" t="s">
         <v>215</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
@@ -2041,7 +2041,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
         <v>93</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -2115,7 +2115,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -2139,7 +2139,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2177,7 +2177,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2191,7 +2191,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="11" t="s">
         <v>216</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -2231,7 +2231,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="18" t="s">
         <v>98</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -2299,7 +2299,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2328,7 +2328,7 @@
       <selection activeCell="C42" sqref="C41:C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="1"/>
     <col min="2" max="2" width="38.25" style="3" customWidth="1"/>
@@ -2339,7 +2339,7 @@
     <col min="7" max="7" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
         <v>236</v>
       </c>
@@ -2353,7 +2353,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>250</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>249</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2420,7 +2420,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2441,7 +2441,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -2897,7 +2897,7 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="18.375" customWidth="1"/>
@@ -2906,7 +2906,7 @@
     <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="11" t="s">
         <v>237</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="H2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="H3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="3" customFormat="1">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -2995,7 +2995,7 @@
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="3" customFormat="1">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="3" customFormat="1">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="3" customFormat="1">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="3" customFormat="1">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="3" customFormat="1">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="3" customFormat="1">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="3" customFormat="1">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="3" customFormat="1">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="3" customFormat="1">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="3" customFormat="1">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="3" customFormat="1">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="3" customFormat="1">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="3" customFormat="1">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="3" customFormat="1">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="3" customFormat="1">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="3" customFormat="1">
       <c r="A26" s="13">
         <v>23</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="3" customFormat="1">
       <c r="A27" s="13">
         <v>24</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="3" customFormat="1">
       <c r="A28" s="13">
         <v>25</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="3" customFormat="1">
       <c r="A29" s="13">
         <v>26</v>
       </c>
@@ -3331,12 +3331,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="3" customFormat="1">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3346,7 +3346,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
         <v>238</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -3376,7 +3376,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -3410,7 +3410,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="3" customFormat="1">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="3" customFormat="1">
       <c r="A37" s="3">
         <v>3</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="3" customFormat="1">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="3" customFormat="1">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="3" customFormat="1">
       <c r="A40" s="3">
         <v>6</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="3" customFormat="1">
       <c r="A41" s="3">
         <v>7</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="3" customFormat="1">
       <c r="A42" s="3">
         <v>8</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="3" customFormat="1">
       <c r="A43" s="3">
         <v>9</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="3" customFormat="1">
       <c r="A44" s="3">
         <v>10</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="3" customFormat="1">
       <c r="A45" s="3">
         <v>11</v>
       </c>
@@ -3521,13 +3521,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="3" customFormat="1"/>
+    <row r="47" spans="1:8" s="3" customFormat="1"/>
+    <row r="48" spans="1:8" s="3" customFormat="1"/>
+    <row r="49" spans="1:8" s="3" customFormat="1"/>
+    <row r="50" spans="1:8" s="3" customFormat="1"/>
+    <row r="51" spans="1:8" s="3" customFormat="1"/>
+    <row r="52" spans="1:8">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3537,7 +3537,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="11" t="s">
         <v>311</v>
       </c>
@@ -3549,7 +3549,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>73</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
         <v>72</v>
       </c>
@@ -3571,7 +3571,7 @@
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="3" customFormat="1">
       <c r="A58" s="3">
         <v>1</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>3</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>4</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>4</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>4</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>5</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>5</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>5</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>6</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>6</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>6</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>7</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>7</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>7</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>8</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>8</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>8</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>9</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>9</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>9</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>10</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>10</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>10</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>11</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>11</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>11</v>
       </c>
@@ -3848,7 +3848,7 @@
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="27.75" customWidth="1"/>
@@ -3858,7 +3858,7 @@
     <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>239</v>
       </c>
@@ -3870,7 +3870,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>81</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
@@ -3914,7 +3914,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3934,7 +3934,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -3954,7 +3954,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3974,7 +3974,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -3994,7 +3994,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -4057,7 +4057,7 @@
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
@@ -4067,7 +4067,7 @@
     <col min="7" max="7" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" s="14" t="s">
         <v>312</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>92</v>
       </c>
@@ -4107,7 +4107,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="A3" s="17" t="s">
         <v>147</v>
       </c>
@@ -4133,7 +4133,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4155,7 +4155,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -4177,7 +4177,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4199,7 +4199,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -4239,7 +4239,7 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -4262,7 +4262,7 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -4285,7 +4285,7 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -4331,7 +4331,7 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -4354,7 +4354,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -4377,7 +4377,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -4423,7 +4423,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -4446,7 +4446,7 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -4469,7 +4469,7 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -4492,7 +4492,7 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -5103,11 +5103,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81957EA4-B239-4C52-8700-A0A21529B74E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
@@ -5120,7 +5120,7 @@
     <col min="9" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>233</v>
       </c>
@@ -5132,7 +5132,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="11" t="s">
         <v>167</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="H7" s="23"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
     </row>
@@ -5371,7 +5371,7 @@
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
@@ -5387,7 +5387,7 @@
     <col min="12" max="12" width="18.125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="32" t="s">
         <v>229</v>
       </c>
@@ -5403,7 +5403,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="12" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="4" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5629,7 +5629,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5639,7 +5639,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="7" customFormat="1">
       <c r="A10" s="25" t="s">
         <v>231</v>
       </c>
@@ -5649,7 +5649,7 @@
       <c r="E10" s="25"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="7" customFormat="1">
       <c r="A11" s="26" t="s">
         <v>172</v>
       </c>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
@@ -5687,7 +5687,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -5705,7 +5705,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -5723,7 +5723,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -5741,7 +5741,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>4</v>
       </c>
@@ -5759,7 +5759,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
         <v>6</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>7</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>8</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>9</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>10</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>11</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
         <v>12</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
         <v>13</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>14</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
         <v>15</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
         <v>16</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="4">
         <v>17</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="4">
         <v>18</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="4">
         <v>19</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="4">
         <v>20</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="4">
         <v>21</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="4">
         <v>22</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="4">
         <v>23</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <v>24</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="4">
         <v>26</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="4">
         <v>27</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="4">
         <v>28</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="4" customFormat="1">
       <c r="A43" s="25" t="s">
         <v>230</v>
       </c>
@@ -6108,7 +6108,7 @@
       <c r="H43" s="7"/>
       <c r="L43" s="27"/>
     </row>
-    <row r="44" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" s="4" customFormat="1">
       <c r="A44" s="26" t="s">
         <v>173</v>
       </c>
@@ -6127,7 +6127,7 @@
       <c r="H44" s="7"/>
       <c r="L44" s="27"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="8" t="s">
         <v>145</v>
       </c>
@@ -6145,7 +6145,7 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" s="3" customFormat="1">
       <c r="A46" s="29">
         <v>1</v>
       </c>
@@ -6162,7 +6162,7 @@
       <c r="H46" s="7"/>
       <c r="L46" s="15"/>
     </row>
-    <row r="47" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" s="3" customFormat="1">
       <c r="A47" s="29">
         <v>2</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="H47" s="7"/>
       <c r="L47" s="15"/>
     </row>
-    <row r="48" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" s="3" customFormat="1">
       <c r="A48" s="29">
         <v>3</v>
       </c>
@@ -6196,7 +6196,7 @@
       <c r="H48" s="7"/>
       <c r="L48" s="15"/>
     </row>
-    <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" s="3" customFormat="1">
       <c r="A49" s="29">
         <v>4</v>
       </c>
@@ -6213,7 +6213,7 @@
       <c r="H49" s="7"/>
       <c r="L49" s="15"/>
     </row>
-    <row r="50" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" s="3" customFormat="1">
       <c r="A50" s="29">
         <v>5</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="H50" s="7"/>
       <c r="L50" s="15"/>
     </row>
-    <row r="51" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" s="3" customFormat="1">
       <c r="A51" s="29">
         <v>6</v>
       </c>
@@ -6247,7 +6247,7 @@
       <c r="H51" s="7"/>
       <c r="L51" s="15"/>
     </row>
-    <row r="52" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" s="3" customFormat="1">
       <c r="A52" s="29">
         <v>7</v>
       </c>
@@ -6264,7 +6264,7 @@
       <c r="H52" s="7"/>
       <c r="L52" s="15"/>
     </row>
-    <row r="53" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" s="3" customFormat="1">
       <c r="A53" s="29">
         <v>8</v>
       </c>
@@ -6281,7 +6281,7 @@
       <c r="H53" s="7"/>
       <c r="L53" s="15"/>
     </row>
-    <row r="54" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" s="3" customFormat="1">
       <c r="A54" s="29">
         <v>9</v>
       </c>
@@ -6298,7 +6298,7 @@
       <c r="H54" s="7"/>
       <c r="L54" s="15"/>
     </row>
-    <row r="55" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" s="3" customFormat="1">
       <c r="A55" s="29">
         <v>10</v>
       </c>
@@ -6315,7 +6315,7 @@
       <c r="H55" s="7"/>
       <c r="L55" s="15"/>
     </row>
-    <row r="56" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" s="3" customFormat="1">
       <c r="A56" s="29">
         <v>11</v>
       </c>
@@ -6332,7 +6332,7 @@
       <c r="H56" s="7"/>
       <c r="L56" s="15"/>
     </row>
-    <row r="57" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" s="3" customFormat="1">
       <c r="A57" s="29">
         <v>12</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="H57" s="7"/>
       <c r="L57" s="15"/>
     </row>
-    <row r="58" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" s="3" customFormat="1">
       <c r="A58" s="29">
         <v>13</v>
       </c>
@@ -6366,7 +6366,7 @@
       <c r="H58" s="7"/>
       <c r="L58" s="15"/>
     </row>
-    <row r="59" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" s="3" customFormat="1">
       <c r="A59" s="29">
         <v>14</v>
       </c>
@@ -6383,7 +6383,7 @@
       <c r="H59" s="7"/>
       <c r="L59" s="15"/>
     </row>
-    <row r="60" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" s="3" customFormat="1">
       <c r="A60" s="29">
         <v>15</v>
       </c>
@@ -6400,7 +6400,7 @@
       <c r="H60" s="7"/>
       <c r="L60" s="15"/>
     </row>
-    <row r="61" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" s="3" customFormat="1">
       <c r="A61" s="29">
         <v>16</v>
       </c>
@@ -6417,7 +6417,7 @@
       <c r="H61" s="7"/>
       <c r="L61" s="15"/>
     </row>
-    <row r="62" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" s="3" customFormat="1">
       <c r="A62" s="29">
         <v>17</v>
       </c>
@@ -6434,7 +6434,7 @@
       <c r="H62" s="7"/>
       <c r="L62" s="15"/>
     </row>
-    <row r="63" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" s="3" customFormat="1">
       <c r="A63" s="29">
         <v>18</v>
       </c>
@@ -6451,7 +6451,7 @@
       <c r="H63" s="7"/>
       <c r="L63" s="15"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64" s="29">
         <v>19</v>
       </c>
@@ -6467,7 +6467,7 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65" s="29">
         <v>20</v>
       </c>
@@ -6483,7 +6483,7 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -6493,7 +6493,7 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -6503,7 +6503,7 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" s="3" customFormat="1">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -6514,7 +6514,7 @@
       <c r="H68" s="9"/>
       <c r="L68" s="15"/>
     </row>
-    <row r="69" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" s="4" customFormat="1">
       <c r="A69" s="25" t="s">
         <v>232</v>
       </c>
@@ -6527,7 +6527,7 @@
       <c r="H69" s="7"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" s="4" customFormat="1">
       <c r="A70" s="26" t="s">
         <v>174</v>
       </c>
@@ -6550,7 +6550,7 @@
       <c r="H70" s="7"/>
       <c r="L70" s="27"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71" s="8" t="s">
         <v>146</v>
       </c>
@@ -6572,7 +6572,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72" s="29">
         <v>1</v>
       </c>
@@ -6592,7 +6592,7 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73" s="29">
         <v>2</v>
       </c>
@@ -6612,7 +6612,7 @@
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="A74" s="29">
         <v>3</v>
       </c>
@@ -6632,7 +6632,7 @@
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="A75" s="29">
         <v>4</v>
       </c>
@@ -6652,7 +6652,7 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="A76" s="29">
         <v>5</v>
       </c>
@@ -6672,7 +6672,7 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77" s="29">
         <v>6</v>
       </c>
@@ -6690,7 +6690,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="A78" s="29">
         <v>7</v>
       </c>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="A79" s="29">
         <v>8</v>
       </c>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="A80" s="29">
         <v>9</v>
       </c>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="29">
         <v>10</v>
       </c>
@@ -6762,7 +6762,7 @@
       </c>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="29">
         <v>11</v>
       </c>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="29">
         <v>12</v>
       </c>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="29">
         <v>13</v>
       </c>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="29">
         <v>14</v>
       </c>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="29">
         <v>15</v>
       </c>
@@ -6852,7 +6852,7 @@
       </c>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="29">
         <v>16</v>
       </c>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="29">
         <v>17</v>
       </c>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="29">
         <v>18</v>
       </c>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="29">
         <v>19</v>
       </c>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" s="29">
         <v>20</v>
       </c>
@@ -6959,7 +6959,7 @@
       <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
@@ -6975,7 +6975,7 @@
     <col min="12" max="12" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="32" t="s">
         <v>227</v>
       </c>
@@ -6991,7 +6991,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -7023,7 +7023,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -7055,7 +7055,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="3" customFormat="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="3" customFormat="1">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="3" customFormat="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="3" customFormat="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="3" customFormat="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="3" customFormat="1">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="3" customFormat="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="3" customFormat="1">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="3" customFormat="1">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -7371,7 +7371,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -7401,7 +7401,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -7431,7 +7431,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -7461,7 +7461,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7471,7 +7471,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -7481,7 +7481,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="3" customFormat="1">
       <c r="A21" s="11" t="s">
         <v>228</v>
       </c>
@@ -7497,7 +7497,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="3" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>265</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
         <v>264</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="4" customFormat="1">
       <c r="A28" s="3">
         <v>5</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>6</v>
       </c>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="3">
         <v>7</v>
       </c>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="3">
         <v>8</v>
       </c>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="3">
         <v>9</v>
       </c>
@@ -7826,7 +7826,7 @@
       </c>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33" s="3">
         <v>10</v>
       </c>
@@ -7856,7 +7856,7 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" s="3">
         <v>11</v>
       </c>
@@ -7886,7 +7886,7 @@
       </c>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" s="3">
         <v>12</v>
       </c>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36" s="3">
         <v>13</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37" s="3">
         <v>14</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38" s="3">
         <v>15</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39" s="3">
         <v>16</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40" s="3">
         <v>17</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41" s="3">
         <v>18</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42" s="3">
         <v>19</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" s="3">
         <v>20</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44" s="3">
         <v>21</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45" s="3">
         <v>22</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46" s="3">
         <v>23</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47" s="3">
         <v>24</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" s="3">
         <v>25</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="3">
         <v>26</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" s="3">
         <v>27</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51" s="3">
         <v>28</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="3">
         <v>29</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" s="3">
         <v>30</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54" s="3">
         <v>31</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55" s="3">
         <v>32</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56" s="3">
         <v>33</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57" s="3">
         <v>34</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9">
       <c r="A58" s="3">
         <v>35</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" s="3">
         <v>36</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9">
       <c r="A60" s="3">
         <v>37</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9">
       <c r="A61" s="3">
         <v>38</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="3">
         <v>39</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="3">
         <v>40</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="3">
         <v>41</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="3">
         <v>42</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="3">
         <v>43</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>44</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="3">
         <v>45</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="3">
         <v>46</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
         <v>47</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="3">
         <v>48</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="3">
         <v>49</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="3">
         <v>50</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="3">
         <v>51</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>52</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="3">
         <v>53</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="3">
         <v>54</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="3">
         <v>55</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="3">
         <v>56</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
         <v>57</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" s="3">
         <v>58</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="A82" s="3">
         <v>59</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="A83" s="3">
         <v>60</v>
       </c>
@@ -9321,11 +9321,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D190FDE1-416F-49C6-91A9-BD8A5F044218}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
@@ -9336,7 +9336,7 @@
     <col min="8" max="8" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="25" t="s">
         <v>225</v>
       </c>
@@ -9354,7 +9354,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
@@ -9372,7 +9372,7 @@
       <c r="I2" s="13"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -9388,7 +9388,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -9402,7 +9402,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -9416,7 +9416,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -9480,10 +9480,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="3" customFormat="1">
       <c r="B14" s="13"/>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="4" customFormat="1">
       <c r="A16" s="11" t="s">
         <v>224</v>
       </c>
@@ -9492,7 +9492,7 @@
       <c r="D16" s="11"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -9510,7 +9510,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
@@ -9528,7 +9528,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -9542,7 +9542,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -9556,7 +9556,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="3">
         <v>6</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="3">
         <v>7</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="3">
         <v>8</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="3">
         <v>9</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="3">
         <v>10</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="3">
         <v>11</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="3">
         <v>12</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="3">
         <v>13</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="3">
         <v>14</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="3">
         <v>15</v>
       </c>
@@ -9660,10 +9660,10 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="11" t="s">
         <v>226</v>
       </c>
@@ -9675,7 +9675,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>139</v>
       </c>
@@ -9691,7 +9691,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
         <v>142</v>
       </c>
@@ -9707,7 +9707,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -9721,7 +9721,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="3">
         <v>2</v>
       </c>
@@ -9735,7 +9735,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>3</v>
       </c>
@@ -9743,14 +9743,14 @@
         <v>297</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="11" t="s">
         <v>268</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>271</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
         <v>269</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -9781,19 +9781,19 @@
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="3"/>
       <c r="B47" s="13"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="11" t="s">
         <v>273</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>274</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>276</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="3">
         <v>2</v>
       </c>
@@ -9833,14 +9833,14 @@
       </c>
       <c r="C53" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="11" t="s">
         <v>292</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>283</v>
       </c>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="D57" s="13"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>266</v>
       </c>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="D58" s="13"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="3">
         <v>1</v>
       </c>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="3">
         <v>2</v>
       </c>
@@ -9882,7 +9882,7 @@
       </c>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" s="3">
         <v>3</v>
       </c>
@@ -9890,14 +9890,14 @@
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="B62" s="13"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="B63" s="13"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="11" t="s">
         <v>298</v>
       </c>
@@ -9905,7 +9905,7 @@
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>299</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
         <v>302</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" s="3">
         <v>1</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" s="3">
         <v>2</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" s="3">
         <v>3</v>
       </c>
@@ -9979,7 +9979,7 @@
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="16.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.75" style="3" customWidth="1"/>
@@ -9991,7 +9991,7 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>251</v>
       </c>
@@ -10002,7 +10002,7 @@
       <c r="F1" s="11"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>132</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>78</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10059,46 +10059,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="B5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="B7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="B8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="B9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="B16" s="12"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="12"/>
     </row>
   </sheetData>
@@ -10116,7 +10116,7 @@
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
@@ -10133,7 +10133,7 @@
     <col min="13" max="13" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="11" t="s">
         <v>219</v>
       </c>
@@ -10151,7 +10151,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="30" t="s">
         <v>122</v>
       </c>
@@ -10189,7 +10189,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>121</v>
       </c>
@@ -10227,7 +10227,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10264,7 +10264,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -10301,7 +10301,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -10338,7 +10338,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -10375,7 +10375,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -10412,7 +10412,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -10449,7 +10449,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -10486,7 +10486,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -10523,7 +10523,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -10560,7 +10560,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -10570,7 +10570,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="11" t="s">
         <v>220</v>
       </c>
@@ -10586,7 +10586,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="30" t="s">
         <v>122</v>
       </c>
@@ -10620,7 +10620,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
         <v>121</v>
       </c>
@@ -10654,7 +10654,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -10686,7 +10686,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -10718,7 +10718,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -10750,7 +10750,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -10782,7 +10782,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="3" customFormat="1">
       <c r="A21" s="3">
         <v>5</v>
       </c>
@@ -10812,7 +10812,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="3" customFormat="1">
       <c r="A22" s="3">
         <v>6</v>
       </c>
@@ -10842,7 +10842,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="3" customFormat="1">
       <c r="A23" s="3">
         <v>7</v>
       </c>
@@ -10872,7 +10872,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="3" customFormat="1">
       <c r="A24" s="3">
         <v>8</v>
       </c>
@@ -10902,7 +10902,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="3" customFormat="1">
       <c r="A25" s="3">
         <v>9</v>
       </c>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -10943,7 +10943,7 @@
       <c r="H26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10954,7 +10954,7 @@
       <c r="H27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="11" t="s">
         <v>221</v>
       </c>
@@ -10968,7 +10968,7 @@
       <c r="I28" s="31"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
         <v>122</v>
       </c>
@@ -10992,7 +10992,7 @@
       <c r="I29" s="13"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
         <v>121</v>
       </c>
@@ -11015,7 +11015,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="3" customFormat="1">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -11035,7 +11035,7 @@
       <c r="I31" s="13"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="3" customFormat="1">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -11055,7 +11055,7 @@
       <c r="I32" s="13"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="3" customFormat="1">
       <c r="A33" s="3">
         <v>3</v>
       </c>
@@ -11075,7 +11075,7 @@
       <c r="I33" s="13"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="3" customFormat="1">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -11095,7 +11095,7 @@
       <c r="I34" s="13"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="3" customFormat="1">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -11115,7 +11115,7 @@
       <c r="I35" s="13"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="3" customFormat="1">
       <c r="A36" s="3">
         <v>6</v>
       </c>
@@ -11135,7 +11135,7 @@
       <c r="I36" s="13"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="3" customFormat="1">
       <c r="A37" s="3">
         <v>7</v>
       </c>
@@ -11155,7 +11155,7 @@
       <c r="I37" s="13"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="3" customFormat="1">
       <c r="A38" s="3">
         <v>8</v>
       </c>
@@ -11175,7 +11175,7 @@
       <c r="I38" s="13"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="3" customFormat="1">
       <c r="A39" s="3">
         <v>9</v>
       </c>
@@ -11195,7 +11195,7 @@
       <c r="I39" s="13"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="3" customFormat="1">
       <c r="B40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -11205,7 +11205,7 @@
       <c r="I40" s="13"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -11217,7 +11217,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42" s="11" t="s">
         <v>222</v>
       </c>
@@ -11231,7 +11231,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" s="30" t="s">
         <v>122</v>
       </c>
@@ -11253,7 +11253,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
         <v>121</v>
       </c>
@@ -11273,7 +11273,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -11291,7 +11291,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="3" customFormat="1">
       <c r="A46" s="3">
         <v>2</v>
       </c>
@@ -11307,7 +11307,7 @@
       <c r="E46" s="4"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="3" customFormat="1">
       <c r="A47" s="3">
         <v>3</v>
       </c>
@@ -11323,7 +11323,7 @@
       <c r="E47" s="4"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="3" customFormat="1">
       <c r="A48" s="3">
         <v>4</v>
       </c>
@@ -11339,7 +11339,7 @@
       <c r="E48" s="4"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="3" customFormat="1">
       <c r="A49" s="3">
         <v>5</v>
       </c>
@@ -11355,7 +11355,7 @@
       <c r="E49" s="4"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="3" customFormat="1">
       <c r="A50" s="3">
         <v>6</v>
       </c>
@@ -11371,7 +11371,7 @@
       <c r="E50" s="4"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="3">
         <v>7</v>
       </c>
@@ -11389,7 +11389,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" s="3">
         <v>8</v>
       </c>
@@ -11407,7 +11407,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" s="3">
         <v>9</v>
       </c>
@@ -11425,7 +11425,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -11435,7 +11435,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -11445,7 +11445,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -11455,7 +11455,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="11" t="s">
         <v>223</v>
       </c>
@@ -11468,7 +11468,7 @@
       <c r="H57" s="24"/>
       <c r="K57" s="13"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58" s="30" t="s">
         <v>122</v>
       </c>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="K58" s="13"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" s="2" t="s">
         <v>121</v>
       </c>
@@ -11522,7 +11522,7 @@
       </c>
       <c r="K59" s="13"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" s="3">
         <v>1</v>
       </c>
@@ -11547,7 +11547,7 @@
       <c r="H60" s="4"/>
       <c r="K60" s="13"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="3">
         <v>2</v>
       </c>
@@ -11572,7 +11572,7 @@
       <c r="H61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="3">
         <v>3</v>
       </c>
@@ -11597,7 +11597,7 @@
       <c r="H62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -11622,7 +11622,7 @@
       <c r="H63" s="4"/>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="3">
         <v>5</v>
       </c>
@@ -11647,7 +11647,7 @@
       <c r="H64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65" s="3">
         <v>6</v>
       </c>
@@ -11672,7 +11672,7 @@
       <c r="H65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" s="3">
         <v>7</v>
       </c>
@@ -11697,7 +11697,7 @@
       <c r="H66" s="4"/>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11">
       <c r="A67" s="3">
         <v>8</v>
       </c>
@@ -11722,7 +11722,7 @@
       <c r="H67" s="4"/>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11">
       <c r="A68" s="3">
         <v>9</v>
       </c>
@@ -11759,14 +11759,14 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>310</v>
       </c>
@@ -11778,7 +11778,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -11796,7 +11796,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
@@ -11814,7 +11814,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -11830,7 +11830,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -11863,8 +11863,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1"/>
+    <row r="9" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -11874,7 +11874,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -11884,7 +11884,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="11" t="s">
         <v>218</v>
       </c>
@@ -11896,7 +11896,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>217</v>
       </c>
@@ -11912,7 +11912,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>121</v>
       </c>
@@ -11928,7 +11928,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -11975,7 +11975,7 @@
       <selection activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
@@ -11989,7 +11989,7 @@
     <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
         <v>234</v>
       </c>
@@ -12003,7 +12003,7 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="3" customFormat="1">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="3" customFormat="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="3" customFormat="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="3" customFormat="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="3" customFormat="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="3" customFormat="1">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="3" customFormat="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="3" customFormat="1">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="3" customFormat="1">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="3" customFormat="1">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="3" customFormat="1">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="3" customFormat="1">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="3" customFormat="1">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="3" customFormat="1">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="3" customFormat="1">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="3" customFormat="1">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="3" customFormat="1">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="3" customFormat="1">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="3" customFormat="1">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="3" customFormat="1">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="3" customFormat="1">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="3" customFormat="1">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="3" customFormat="1">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="3" customFormat="1">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="3" customFormat="1">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="3" customFormat="1">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="3" customFormat="1">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="3" customFormat="1">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="3" customFormat="1">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="3" customFormat="1">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="3" customFormat="1">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="3" customFormat="1">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="3" customFormat="1">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="3" customFormat="1">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="3" customFormat="1">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="3" customFormat="1">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="3" customFormat="1">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="3" customFormat="1">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="3" customFormat="1">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="3" customFormat="1">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="3" customFormat="1">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="3" customFormat="1">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="3" customFormat="1">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="3" customFormat="1">
       <c r="A49" s="3">
         <v>46</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" s="3">
         <v>47</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="3">
         <v>49</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="3" customFormat="1">
       <c r="A53" s="3">
         <v>50</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="3" customFormat="1">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="3" customFormat="1">
       <c r="A55" s="3">
         <v>52</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="3" customFormat="1">
       <c r="A56" s="3">
         <v>53</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="3" customFormat="1">
       <c r="A57" s="3">
         <v>54</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="3" customFormat="1">
       <c r="A58" s="3">
         <v>55</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="3" customFormat="1">
       <c r="A59" s="3">
         <v>56</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="3" customFormat="1">
       <c r="A60" s="3">
         <v>57</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="3" customFormat="1">
       <c r="A61" s="3">
         <v>58</v>
       </c>
@@ -13749,7 +13749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="3" customFormat="1">
       <c r="A62" s="3">
         <v>59</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="3" customFormat="1">
       <c r="A63" s="3">
         <v>60</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" s="3" customFormat="1">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" s="3" customFormat="1">
       <c r="A65" s="3">
         <v>62</v>
       </c>
@@ -13865,7 +13865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" s="3" customFormat="1">
       <c r="A66" s="3">
         <v>63</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" s="3" customFormat="1">
       <c r="A67" s="3">
         <v>64</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" s="3" customFormat="1">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" s="3" customFormat="1">
       <c r="A69" s="3">
         <v>66</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" s="3" customFormat="1">
       <c r="A70" s="3">
         <v>67</v>
       </c>
@@ -14010,7 +14010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" s="3" customFormat="1">
       <c r="A71" s="3">
         <v>68</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" s="3" customFormat="1">
       <c r="A72" s="3">
         <v>69</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" s="3" customFormat="1">
       <c r="A73" s="3">
         <v>70</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" s="3" customFormat="1">
       <c r="A74" s="3">
         <v>71</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" s="3" customFormat="1">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" s="3" customFormat="1">
       <c r="A76" s="3">
         <v>73</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" s="3" customFormat="1">
       <c r="A77" s="3">
         <v>74</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" s="3" customFormat="1">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" s="3" customFormat="1">
       <c r="A79" s="3">
         <v>76</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" s="3" customFormat="1">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" s="3" customFormat="1">
       <c r="A81" s="3">
         <v>78</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" s="3" customFormat="1">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" s="3" customFormat="1">
       <c r="A83" s="3">
         <v>80</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" s="3" customFormat="1">
       <c r="A84" s="3">
         <v>81</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" s="3" customFormat="1">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" s="3" customFormat="1">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" s="3" customFormat="1">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" s="3" customFormat="1">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -14532,7 +14532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" s="3" customFormat="1">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" s="3" customFormat="1">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -14590,7 +14590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" s="3" customFormat="1">
       <c r="A91" s="3">
         <v>88</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" s="3" customFormat="1">
       <c r="A92" s="3">
         <v>89</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" s="3" customFormat="1">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" s="3" customFormat="1">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -14706,7 +14706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" s="3" customFormat="1">
       <c r="A95" s="3">
         <v>92</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" s="3" customFormat="1">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="3" customFormat="1">
       <c r="A97" s="3">
         <v>94</v>
       </c>
@@ -14793,7 +14793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" s="3" customFormat="1">
       <c r="A98" s="3">
         <v>95</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="3" customFormat="1">
       <c r="A99" s="3">
         <v>96</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="3" customFormat="1">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="3" customFormat="1">
       <c r="A101" s="3">
         <v>98</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="3" customFormat="1">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="3" customFormat="1">
       <c r="A103" s="3">
         <v>100</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="3" customFormat="1">
       <c r="A104" s="3">
         <v>101</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="3" customFormat="1">
       <c r="A105" s="3">
         <v>102</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" s="3" customFormat="1">
       <c r="A106" s="3">
         <v>103</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="3" customFormat="1">
       <c r="A107" s="3">
         <v>104</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" s="3" customFormat="1">
       <c r="A108" s="3">
         <v>105</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" s="3" customFormat="1">
       <c r="A109" s="3">
         <v>106</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" s="3" customFormat="1">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" s="3" customFormat="1">
       <c r="A111" s="3">
         <v>108</v>
       </c>
@@ -15199,7 +15199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" s="3" customFormat="1">
       <c r="A112" s="3">
         <v>109</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" s="3" customFormat="1">
       <c r="A113" s="3">
         <v>110</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" s="3" customFormat="1">
       <c r="A114" s="3">
         <v>111</v>
       </c>
@@ -15286,7 +15286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" s="3" customFormat="1">
       <c r="A115" s="3">
         <v>112</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" s="3" customFormat="1">
       <c r="A116" s="3">
         <v>113</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" s="3" customFormat="1">
       <c r="A117" s="3">
         <v>114</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" s="3" customFormat="1">
       <c r="A118" s="3">
         <v>115</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" s="3" customFormat="1">
       <c r="A119" s="3">
         <v>116</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" s="3" customFormat="1">
       <c r="A120" s="3">
         <v>117</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" s="3" customFormat="1">
       <c r="A121" s="3">
         <v>118</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" s="3" customFormat="1">
       <c r="A122" s="3">
         <v>119</v>
       </c>
@@ -15518,7 +15518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" s="3" customFormat="1">
       <c r="A123" s="3">
         <v>120</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" s="3" customFormat="1">
       <c r="A124" s="3">
         <v>121</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" s="3" customFormat="1">
       <c r="A125" s="3">
         <v>122</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" s="3" customFormat="1">
       <c r="A126" s="3">
         <v>123</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" s="3" customFormat="1">
       <c r="A127" s="3">
         <v>124</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" s="3" customFormat="1">
       <c r="A128" s="3">
         <v>125</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" s="3" customFormat="1">
       <c r="A129" s="3">
         <v>126</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" s="3" customFormat="1">
       <c r="A130" s="3">
         <v>127</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" s="3" customFormat="1">
       <c r="A131" s="3">
         <v>128</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" s="3" customFormat="1">
       <c r="A132" s="3">
         <v>129</v>
       </c>
@@ -15808,7 +15808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" s="3" customFormat="1">
       <c r="A133" s="3">
         <v>130</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" s="3" customFormat="1">
       <c r="A134" s="3">
         <v>131</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" s="3" customFormat="1">
       <c r="A135" s="3">
         <v>132</v>
       </c>
@@ -15895,7 +15895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" s="3" customFormat="1">
       <c r="A136" s="3">
         <v>133</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" s="3" customFormat="1">
       <c r="A137" s="3">
         <v>134</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" s="3" customFormat="1">
       <c r="A138" s="3">
         <v>135</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" s="3" customFormat="1">
       <c r="A139" s="3">
         <v>136</v>
       </c>
@@ -16011,7 +16011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" s="3" customFormat="1">
       <c r="A140" s="3">
         <v>137</v>
       </c>
@@ -16040,7 +16040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" s="3" customFormat="1">
       <c r="A141" s="3">
         <v>138</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" s="3" customFormat="1">
       <c r="A142" s="3">
         <v>139</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" s="3" customFormat="1">
       <c r="A143" s="3">
         <v>140</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" s="3" customFormat="1">
       <c r="A144" s="3">
         <v>141</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" s="3" customFormat="1">
       <c r="A145" s="3">
         <v>142</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" s="3" customFormat="1">
       <c r="A146" s="3">
         <v>143</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" s="3" customFormat="1">
       <c r="A147" s="3">
         <v>144</v>
       </c>
@@ -16243,7 +16243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" s="3" customFormat="1">
       <c r="A148" s="3">
         <v>145</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" s="3" customFormat="1">
       <c r="A149" s="3">
         <v>146</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" s="3" customFormat="1">
       <c r="A150" s="3">
         <v>147</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" s="3" customFormat="1">
       <c r="A151" s="3">
         <v>148</v>
       </c>
@@ -16359,7 +16359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" s="3" customFormat="1">
       <c r="A152" s="3">
         <v>149</v>
       </c>
@@ -16388,7 +16388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" s="3" customFormat="1">
       <c r="A153" s="3">
         <v>150</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" s="3" customFormat="1">
       <c r="A154" s="3">
         <v>151</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" s="3" customFormat="1">
       <c r="A155" s="3">
         <v>152</v>
       </c>
@@ -16475,7 +16475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" s="3" customFormat="1">
       <c r="A156" s="3">
         <v>153</v>
       </c>
@@ -16504,8 +16504,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" s="3" customFormat="1"/>
+    <row r="158" spans="1:9">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -16515,7 +16515,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -16525,7 +16525,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9">
       <c r="A160" s="11" t="s">
         <v>235</v>
       </c>
@@ -16538,7 +16538,7 @@
       <c r="H160" s="24"/>
       <c r="I160" s="11"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="s">
         <v>64</v>
       </c>
@@ -16567,7 +16567,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9">
       <c r="A162" s="2" t="s">
         <v>65</v>
       </c>
@@ -16596,7 +16596,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9">
       <c r="A163" s="13">
         <v>1</v>
       </c>
@@ -16622,7 +16622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9">
       <c r="A164" s="13">
         <v>2</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9">
       <c r="A165" s="13">
         <v>3</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9">
       <c r="A166" s="13">
         <v>4</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9">
       <c r="A167" s="13">
         <v>5</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9">
       <c r="A168" s="13">
         <v>6</v>
       </c>
@@ -16752,7 +16752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9">
       <c r="A169" s="13">
         <v>7</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9">
       <c r="A170" s="13">
         <v>8</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9">
       <c r="A171" s="13">
         <v>9</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9">
       <c r="A172" s="13">
         <v>10</v>
       </c>
@@ -16856,25 +16856,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9">
       <c r="H173" s="13"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9">
       <c r="H174" s="13"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9">
       <c r="H175" s="13"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9">
       <c r="H176" s="13"/>
     </row>
-    <row r="177" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:8">
       <c r="H177" s="13"/>
     </row>
-    <row r="178" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:8">
       <c r="H178" s="13"/>
     </row>
-    <row r="179" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:8">
       <c r="H179" s="13"/>
     </row>
   </sheetData>
